--- a/kb/unit-converter/volume.xlsx
+++ b/kb/unit-converter/volume.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Measure Label</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cubic Inches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Gallons</t>
   </si>
 </sst>
 </file>
@@ -297,10 +300,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -402,6 +405,14 @@
       </c>
       <c r="C9" s="1"/>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>264.1720373</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kb/unit-converter/volume.xlsx
+++ b/kb/unit-converter/volume.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Measure Label</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">US Gallons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Barrels (Oil)</t>
   </si>
 </sst>
 </file>
@@ -300,10 +303,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -413,6 +416,20 @@
         <v>264.1720373</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.158987567172247</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="0" t="n">
+        <f aca="false">0.158987567172247*24</f>
+        <v>3.81570161213393</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kb/unit-converter/volume.xlsx
+++ b/kb/unit-converter/volume.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Measure Label</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">Cubic Meters</t>
+    <t xml:space="preserve">m3</t>
   </si>
   <si>
     <r>
@@ -88,25 +88,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Cubic Millimeters</t>
+    <t xml:space="preserve">mm3</t>
   </si>
   <si>
     <t xml:space="preserve">For all other units, the factor should be the DIVISOR, in order to get from the unit on this row, to the standard unit in row 6.  For example, if you have 5000mm, then dividing by 1000 gets you 5 meters.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cubic Feet</t>
+    <t xml:space="preserve">ft3</t>
   </si>
   <si>
     <t xml:space="preserve">You can place as many units as you want – the system will read until there is an empty cell in column A</t>
   </si>
   <si>
-    <t xml:space="preserve">Cubic Inches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Gallons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Barrels (Oil)</t>
+    <t xml:space="preserve">in3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usgpm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bblpd (oil)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liter</t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -424,6 +427,14 @@
         <v>0.158987567172247</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="0" t="n">
         <f aca="false">0.158987567172247*24</f>

--- a/kb/unit-converter/volume.xlsx
+++ b/kb/unit-converter/volume.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t xml:space="preserve">Measure Label</t>
   </si>
@@ -103,13 +103,31 @@
     <t xml:space="preserve">in3</t>
   </si>
   <si>
-    <t xml:space="preserve">Usgpm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bblpd (oil)</t>
+    <t xml:space="preserve">USgallons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrels</t>
   </si>
   <si>
     <t xml:space="preserve">liter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gallons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264.17 us gallons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oil</t>
   </si>
 </sst>
 </file>
@@ -119,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -154,6 +172,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -204,7 +227,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -227,6 +250,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -306,10 +333,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -415,8 +442,8 @@
       <c r="A10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>264.1720373</v>
+      <c r="B10" s="6" t="n">
+        <v>264.17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,7 +451,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.158987567172247</v>
+        <v>6.289703</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,6 +460,58 @@
       </c>
       <c r="B12" s="0" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="n">
+        <v>0.15899</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.15899</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>6.28970375</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="0" t="n">
+        <f aca="false">1/264.17</f>
+        <v>0.00378544119317106</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">1/H16</f>
+        <v>6.28970375495314</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/kb/unit-converter/volume.xlsx
+++ b/kb/unit-converter/volume.xlsx
@@ -106,7 +106,7 @@
     <t xml:space="preserve">USgallons</t>
   </si>
   <si>
-    <t xml:space="preserve">barrels</t>
+    <t xml:space="preserve">barrels (oil)</t>
   </si>
   <si>
     <t xml:space="preserve">liter</t>
@@ -137,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -173,11 +173,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -252,7 +247,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -336,7 +331,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/kb/unit-converter/volume.xlsx
+++ b/kb/unit-converter/volume.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_1631B0FE4F1DE39B5E4322B0B6AB193B4138F1D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F06A89DE-122A-4E62-BAA6-B1B79AB4C31C}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\edb\kb\unit-converter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28008B4D-5E52-409D-9015-C060C902E25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40485" yWindow="2385" windowWidth="17625" windowHeight="11070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Measure Label</t>
   </si>
@@ -179,17 +181,72 @@
   <si>
     <t>yd&amp;sup3</t>
   </si>
+  <si>
+    <t>cubic meter</t>
+  </si>
+  <si>
+    <t>barrel (Imperial)</t>
+  </si>
+  <si>
+    <t>barrel (Petroleum)</t>
+  </si>
+  <si>
+    <t>barrel (US)</t>
+  </si>
+  <si>
+    <t>cubic centimeter</t>
+  </si>
+  <si>
+    <t>fluid ounce (Imperial)</t>
+  </si>
+  <si>
+    <t>fluid ounce (US)</t>
+  </si>
+  <si>
+    <t>cubic foot</t>
+  </si>
+  <si>
+    <t>gallon (Imperial)</t>
+  </si>
+  <si>
+    <t>cubic inch</t>
+  </si>
+  <si>
+    <t>liter</t>
+  </si>
+  <si>
+    <t>cubic mile</t>
+  </si>
+  <si>
+    <t>milliliter</t>
+  </si>
+  <si>
+    <t>cubic millimeter</t>
+  </si>
+  <si>
+    <t>cubic yard</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -229,29 +286,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{49837790-23F5-4100-8916-0254BDFDC654}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -335,9 +395,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -375,7 +435,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -481,7 +541,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -623,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -631,269 +691,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125"/>
+    <col min="2" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.149999999999999">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="54.75" customHeight="1">
+      <c r="C5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="48">
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
         <v>6.1102568975000002</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24">
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8">
         <v>6.2898105697750699</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9">
         <v>8.3864143605999999</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12">
         <v>35195.079727999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13">
         <v>33814.0222016107</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="C13" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>35.3146667214885</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="C14" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15">
         <v>219.96924829908778</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="C15" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16">
         <v>264.17203728418463</v>
       </c>
-      <c r="D16">
+      <c r="C16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
         <v>42</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="1">
         <v>61023.8429532511</v>
       </c>
-      <c r="D17">
+      <c r="C17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17">
         <v>0.15898999999999999</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>28</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>29</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18">
         <v>1000</v>
       </c>
-      <c r="F18" t="s">
+      <c r="C18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
         <v>32</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.15898999999999999</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>27</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>6.2897037500000001</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19">
         <v>2.39912748531614E-10</v>
       </c>
-      <c r="F19">
+      <c r="C19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19">
         <f>1/264.17</f>
         <v>3.7854411931710638E-3</v>
       </c>
-      <c r="H19">
-        <f>1/H18</f>
+      <c r="I19">
+        <f>1/I18</f>
         <v>6.289703754953142</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="C20" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="1">
         <v>1000000000</v>
       </c>
-      <c r="F21">
+      <c r="C21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21">
         <f>0.158987567172247*24</f>
         <v>3.8157016121339278</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
       <c r="B22">
         <v>1056.6882094</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="C22" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
       <c r="B23">
         <v>1.3079505474361619</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -910,14 +1031,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1158,22 +1277,50 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3371EE5-D230-450C-872E-A9D67124F40D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FE0E6E-14D9-4A7B-B94F-05A00677CC18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB8C85D5-670B-4B56-8CA9-637C5A21A5D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB8C85D5-670B-4B56-8CA9-637C5A21A5D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FE0E6E-14D9-4A7B-B94F-05A00677CC18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3371EE5-D230-450C-872E-A9D67124F40D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/kb/unit-converter/volume.xlsx
+++ b/kb/unit-converter/volume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\edb\kb\unit-converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28008B4D-5E52-409D-9015-C060C902E25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDA9229-9D1B-40CA-9DB1-E9D5DC3023AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40485" yWindow="2385" windowWidth="17625" windowHeight="11070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1800" windowWidth="19410" windowHeight="13575" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Measure Label</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Default From Row</t>
+  </si>
+  <si>
+    <t>Default To Row</t>
   </si>
 </sst>
 </file>
@@ -691,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -705,7 +711,7 @@
     <col min="5" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -729,7 +735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -741,285 +747,305 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>6.1102568975000002</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>6.2898105697750699</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>8.3864143605999999</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>1000000</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>1000000</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>35195.079727999997</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>33814.0222016107</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B16" s="1">
         <v>35.3146667214885</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>219.96924829908778</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>264.17203728418463</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1">
-        <v>61023.8429532511</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17">
-        <v>0.15898999999999999</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>264.17203728418463</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>61023.8429532511</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>0.15898999999999999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>1000</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G20" t="s">
         <v>32</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <v>0.15898999999999999</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J20" t="s">
         <v>27</v>
       </c>
-      <c r="K18">
+      <c r="K20">
         <v>6.2897037500000001</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>2.39912748531614E-10</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <f>1/264.17</f>
         <v>3.7854411931710638E-3</v>
       </c>
-      <c r="I19">
-        <f>1/I18</f>
+      <c r="I21">
+        <f>1/I20</f>
         <v>6.289703754953142</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>1000000</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B23" s="1">
         <v>1000000000</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <f>0.158987567172247*24</f>
         <v>3.8157016121339278</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>1056.6882094</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>1.3079505474361619</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:B23">
-    <sortCondition ref="A7:A23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:B25">
+    <sortCondition ref="A9:A25"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -1031,15 +1057,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5F168F66F91CF43BAEE65DC9E9CF3DF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="012c7fef03233136f3b92728f80e18f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8da57d07-bd53-4918-9441-156ccef8128a" xmlns:ns3="32f445ef-0db1-4ff5-a403-59aa008b5549" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bc58cbf5cc050e49b481be3a36a2ee3" ns2:_="" ns3:_="">
     <xsd:import namespace="8da57d07-bd53-4918-9441-156ccef8128a"/>
@@ -1276,6 +1293,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1288,14 +1314,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FE0E6E-14D9-4A7B-B94F-05A00677CC18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB8C85D5-670B-4B56-8CA9-637C5A21A5D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1314,6 +1332,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FE0E6E-14D9-4A7B-B94F-05A00677CC18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3371EE5-D230-450C-872E-A9D67124F40D}">
   <ds:schemaRefs>

--- a/kb/unit-converter/volume.xlsx
+++ b/kb/unit-converter/volume.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_1631B0FE4F1DE39B5E4322B0B6AB193B4138F1D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F06A89DE-122A-4E62-BAA6-B1B79AB4C31C}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\edb\kb\unit-converter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDA9229-9D1B-40CA-9DB1-E9D5DC3023AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1800" windowWidth="19410" windowHeight="13575" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Measure Label</t>
   </si>
@@ -179,17 +181,78 @@
   <si>
     <t>yd&amp;sup3</t>
   </si>
+  <si>
+    <t>cubic meter</t>
+  </si>
+  <si>
+    <t>barrel (Imperial)</t>
+  </si>
+  <si>
+    <t>barrel (Petroleum)</t>
+  </si>
+  <si>
+    <t>barrel (US)</t>
+  </si>
+  <si>
+    <t>cubic centimeter</t>
+  </si>
+  <si>
+    <t>fluid ounce (Imperial)</t>
+  </si>
+  <si>
+    <t>fluid ounce (US)</t>
+  </si>
+  <si>
+    <t>cubic foot</t>
+  </si>
+  <si>
+    <t>gallon (Imperial)</t>
+  </si>
+  <si>
+    <t>cubic inch</t>
+  </si>
+  <si>
+    <t>liter</t>
+  </si>
+  <si>
+    <t>cubic mile</t>
+  </si>
+  <si>
+    <t>milliliter</t>
+  </si>
+  <si>
+    <t>cubic millimeter</t>
+  </si>
+  <si>
+    <t>cubic yard</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Default From Row</t>
+  </si>
+  <si>
+    <t>Default To Row</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -229,29 +292,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{49837790-23F5-4100-8916-0254BDFDC654}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -335,9 +401,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -375,7 +441,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -481,7 +547,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -623,7 +689,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -631,274 +697,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125"/>
+    <col min="2" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.149999999999999">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="48">
-      <c r="A7" t="s">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>6.1102568975000002</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24">
-      <c r="A8" t="s">
+    <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>6.2898105697750699</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>8.3864143605999999</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>35195.079727999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="C14" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>33814.0222016107</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="C15" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B16" s="1">
         <v>35.3146667214885</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>219.96924829908778</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="C17" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>264.17203728418463</v>
       </c>
-      <c r="D16">
+      <c r="C18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
         <v>42</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B19" s="1">
         <v>61023.8429532511</v>
       </c>
-      <c r="D17">
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19">
         <v>0.15898999999999999</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F19" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G19" t="s">
         <v>28</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I19" t="s">
         <v>29</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>1000</v>
       </c>
-      <c r="F18" t="s">
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
         <v>32</v>
       </c>
-      <c r="H18">
+      <c r="I20">
         <v>0.15898999999999999</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J20" t="s">
         <v>27</v>
       </c>
-      <c r="J18">
+      <c r="K20">
         <v>6.2897037500000001</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>2.39912748531614E-10</v>
       </c>
-      <c r="F19">
+      <c r="C21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21">
         <f>1/264.17</f>
         <v>3.7854411931710638E-3</v>
       </c>
-      <c r="H19">
-        <f>1/H18</f>
+      <c r="I21">
+        <f>1/I20</f>
         <v>6.289703754953142</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
+      <c r="C22" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B23" s="1">
         <v>1000000000</v>
       </c>
-      <c r="F21">
+      <c r="C23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23">
         <f>0.158987567172247*24</f>
         <v>3.8157016121339278</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>1056.6882094</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
+      <c r="C24" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>1.3079505474361619</v>
       </c>
+      <c r="C25" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:B23">
-    <sortCondition ref="A7:A23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:B25">
+    <sortCondition ref="A9:A25"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -910,17 +1057,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5F168F66F91CF43BAEE65DC9E9CF3DF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="012c7fef03233136f3b92728f80e18f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8da57d07-bd53-4918-9441-156ccef8128a" xmlns:ns3="32f445ef-0db1-4ff5-a403-59aa008b5549" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bc58cbf5cc050e49b481be3a36a2ee3" ns2:_="" ns3:_="">
     <xsd:import namespace="8da57d07-bd53-4918-9441-156ccef8128a"/>
@@ -1157,7 +1293,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1166,14 +1302,51 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3371EE5-D230-450C-872E-A9D67124F40D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB8C85D5-670B-4B56-8CA9-637C5A21A5D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB8C85D5-670B-4B56-8CA9-637C5A21A5D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FE0E6E-14D9-4A7B-B94F-05A00677CC18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8FE0E6E-14D9-4A7B-B94F-05A00677CC18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3371EE5-D230-450C-872E-A9D67124F40D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>